--- a/tools_scripts/CharactorTable_template.xlsx
+++ b/tools_scripts/CharactorTable_template.xlsx
@@ -1,31 +1,327 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TRPG-Replay-Generator\tools_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEBEA15-F731-40D8-B553-186347093CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E345054F-2FA5-4450-992D-0852C885BF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色配置" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>李霖轩</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{960214EA-B373-46B2-9BD2-700B41F73D80}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>角色名称列：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+角色的名称，和log文件中的角色名相互对应。角色须在本表中定义后才能在log文件中使用。
+可以使用的字符包括：汉字、英文字母、数字、下划线、空格。
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2C86867C-B71C-4627-9066-79B847CFEC47}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">角色差分列：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>角色差分指同一个角色的不同状态；一个角色可以拥有无限个差分；同一个角色的差分不能重名。
+可以使用的字符包括：汉字、英文字母、数字、下划线。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B0C56392-CF4A-41E3-8E33-98AAE762B8E2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">立绘列：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>指定角色的立绘；
+需要指定一个媒体定义文件中定义好的立绘类媒体名（不是文件名！）
+如果不需要显示立绘，请输入：NA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E160D2A5-ECD2-4583-9856-A3BBF677126F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">气泡列：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>指定角色的发言气泡；
+需要指定一个媒体定义文件中定义好的气泡类媒体名（不是文件名！）
+如果不需要气泡，请输入：NA
+（没有气泡的角色不能作为主要发言人！）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E7F23640-9AEB-48B7-9F23-02297204315B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">音源列：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>指定语音合成时角色的音源；</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>可用的音源名请参考帮助文档；若音源名有误，将无法合成语音。
+建议从音频试听窗口复制音源参数，并直接黏贴到这一列。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A40D78DC-0421-47A9-8F88-8C77FA9F9B77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>语速列：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+语音合成时的语速，需要是一个取值范围为[-500,500]的整数；
+-500代表0.5倍速，500代表2倍速度。
+如果不填，默认值是0，即原速。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{013FC2D5-AE0A-4D79-96FF-37F8660E4F19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">语调列：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>语音合成时的声调，需要是一个取值范围为[-500,500]的整数；
+-500代表低八度，500代表高八度。
+如果不填，默认值是0，即原声调。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{41348B77-3E11-4B42-BCF3-EA674A5ECD9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>自定义列：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="等线"/>
+            <family val="3"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+自定义列用于指定给头文本,显示自定义文本。
+可以修改本列列名，也可也添加额外的自定义列（但不能和左边的行重名！）
+&lt;set:&gt;设置行能修改自定义列的内容，不能修改左边的列。
+不可以包含符号：" \ # |</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -48,58 +344,7 @@
     <t>PitchRate</t>
   </si>
   <si>
-    <t>log里使用的角色的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个角色都需要至少一个default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个角色可以拥有多个差分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立绘，需要是一个媒体定义文件里已经定义好的，Animation类的对象名称；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果这个角色、差分不需要立绘，则使用NA表示缺省</t>
-  </si>
-  <si>
-    <t>气泡，在媒体定义文件中已经定义好Bubble类的对象名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果这个这个角色发言没有气泡，则使用NA表示缺省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语速，取值范围是-500-500，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这一列可以缺省，使用默认语速：0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这一列可以去缺省，使用默认语调0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语调，取值范围是-500-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发音音源，可用的名称参考./doc/aliyun_available_voice.md，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要语音则用NA表示缺省，仅在语音合成模块需要这一列，主程序可以没有这一列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿去用的角色配置表，记得要把这里的所有备注删掉呀！</t>
+    <t>OtherCustoms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,38 +368,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
-      <color theme="9" tint="0.39997558519241921"/>
+      <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="5" tint="0.59999389629810485"/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,29 +446,301 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -197,37 +753,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -243,16 +790,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3B58F0-E77F-4A50-A50D-8AF7EA48F2CE}" name="表2" displayName="表2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:G3" xr:uid="{0A3B58F0-E77F-4A50-A50D-8AF7EA48F2CE}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{477E84AB-0091-4FEB-A963-9043D145B5A9}" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{4AA3B6E4-111D-487C-98EA-D985C5E92A1D}" name="Subtype" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{EE1890AD-8AED-4D3B-B989-9601CE54DF05}" name="Animation" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5D602C78-BD9A-4BEB-B744-443EE9BB6A7D}" name="Bubble" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{2247103A-6B18-4378-A7F1-035349545E86}" name="Voice" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{77F8EC87-AC5F-42F1-881E-6599E252EC95}" name="SpeechRate" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00FAEFD5-F805-450E-9C55-CD4452167560}" name="PitchRate" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3B58F0-E77F-4A50-A50D-8AF7EA48F2CE}" name="表2" displayName="表2" ref="A1:H6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A1:H6" xr:uid="{0A3B58F0-E77F-4A50-A50D-8AF7EA48F2CE}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{477E84AB-0091-4FEB-A963-9043D145B5A9}" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4AA3B6E4-111D-487C-98EA-D985C5E92A1D}" name="Subtype" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{EE1890AD-8AED-4D3B-B989-9601CE54DF05}" name="Animation" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{5D602C78-BD9A-4BEB-B744-443EE9BB6A7D}" name="Bubble" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{2247103A-6B18-4378-A7F1-035349545E86}" name="Voice" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{77F8EC87-AC5F-42F1-881E-6599E252EC95}" name="SpeechRate" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00FAEFD5-F805-450E-9C55-CD4452167560}" name="PitchRate" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{03EC7BC5-5E1E-4554-8148-8B158B83CA7F}" name="OtherCustoms" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -520,29 +1068,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="22.25" customWidth="1"/>
+    <col min="1" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -554,58 +1102,67 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tools_scripts/CharactorTable_template.xlsx
+++ b/tools_scripts/CharactorTable_template.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TRPG-Replay-Generator\tools_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E345054F-2FA5-4450-992D-0852C885BF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE79217-4085-41AF-B51C-035590A7ECF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色配置" sheetId="1" r:id="rId1"/>
+    <sheet name="所有可用音源" sheetId="4" r:id="rId2"/>
+    <sheet name="阿里云音源" sheetId="2" r:id="rId3"/>
+    <sheet name="Azure普通话音源" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,293 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>李霖轩</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{960214EA-B373-46B2-9BD2-700B41F73D80}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>角色名称列：</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-角色的名称，和log文件中的角色名相互对应。角色须在本表中定义后才能在log文件中使用。
-可以使用的字符包括：汉字、英文字母、数字、下划线、空格。
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2C86867C-B71C-4627-9066-79B847CFEC47}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">角色差分列：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>角色差分指同一个角色的不同状态；一个角色可以拥有无限个差分；同一个角色的差分不能重名。
-可以使用的字符包括：汉字、英文字母、数字、下划线。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B0C56392-CF4A-41E3-8E33-98AAE762B8E2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">立绘列：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>指定角色的立绘；
-需要指定一个媒体定义文件中定义好的立绘类媒体名（不是文件名！）
-如果不需要显示立绘，请输入：NA</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E160D2A5-ECD2-4583-9856-A3BBF677126F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">气泡列：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>指定角色的发言气泡；
-需要指定一个媒体定义文件中定义好的气泡类媒体名（不是文件名！）
-如果不需要气泡，请输入：NA
-（没有气泡的角色不能作为主要发言人！）</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E7F23640-9AEB-48B7-9F23-02297204315B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">音源列：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>指定语音合成时角色的音源；</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>可用的音源名请参考帮助文档；若音源名有误，将无法合成语音。
-建议从音频试听窗口复制音源参数，并直接黏贴到这一列。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A40D78DC-0421-47A9-8F88-8C77FA9F9B77}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>语速列：</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-语音合成时的语速，需要是一个取值范围为[-500,500]的整数；
--500代表0.5倍速，500代表2倍速度。
-如果不填，默认值是0，即原速。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{013FC2D5-AE0A-4D79-96FF-37F8660E4F19}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">语调列：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>语音合成时的声调，需要是一个取值范围为[-500,500]的整数；
--500代表低八度，500代表高八度。
-如果不填，默认值是0，即原声调。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{41348B77-3E11-4B42-BCF3-EA674A5ECD9C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>自定义列：</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="等线"/>
-            <family val="3"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-自定义列用于指定给头文本,显示自定义文本。
-可以修改本列列名，也可也添加额外的自定义列（但不能和左边的行重名！）
-&lt;set:&gt;设置行能修改自定义列的内容，不能修改左边的列。
-不可以包含符号：" \ # |</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="287">
   <si>
     <t>Name</t>
   </si>
@@ -345,6 +63,860 @@
   </si>
   <si>
     <t>OtherCustoms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>适用场景</t>
+  </si>
+  <si>
+    <t>支持语言</t>
+  </si>
+  <si>
+    <t>支持采样率(Hz)</t>
+  </si>
+  <si>
+    <t>支持时间戳（字级别音素边界）接口</t>
+  </si>
+  <si>
+    <t>声音品质</t>
+  </si>
+  <si>
+    <t>知米_多情感</t>
+  </si>
+  <si>
+    <t>zhimi_emo</t>
+  </si>
+  <si>
+    <t>多种情感女声</t>
+  </si>
+  <si>
+    <t>通用场景</t>
+  </si>
+  <si>
+    <t>中文及中英文混合场景</t>
+  </si>
+  <si>
+    <t>8K/16K</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>标准版</t>
+  </si>
+  <si>
+    <t>知燕_多情感</t>
+  </si>
+  <si>
+    <t>zhiyan_emo</t>
+  </si>
+  <si>
+    <t>知贝_多情感</t>
+  </si>
+  <si>
+    <t>zhibei_emo</t>
+  </si>
+  <si>
+    <t>多种情感童声</t>
+  </si>
+  <si>
+    <t>知甜_多情感</t>
+  </si>
+  <si>
+    <t>zhitian_emo</t>
+  </si>
+  <si>
+    <t>小云</t>
+  </si>
+  <si>
+    <t>xiaoyun</t>
+  </si>
+  <si>
+    <t>标准女声</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>lite版</t>
+  </si>
+  <si>
+    <t>小刚</t>
+  </si>
+  <si>
+    <t>xiaogang</t>
+  </si>
+  <si>
+    <t>标准男声</t>
+  </si>
+  <si>
+    <t>若兮</t>
+  </si>
+  <si>
+    <t>ruoxi</t>
+  </si>
+  <si>
+    <t>温柔女声</t>
+  </si>
+  <si>
+    <t>8K/16K/24K</t>
+  </si>
+  <si>
+    <t>思琪</t>
+  </si>
+  <si>
+    <t>siqi</t>
+  </si>
+  <si>
+    <t>思佳</t>
+  </si>
+  <si>
+    <t>sijia</t>
+  </si>
+  <si>
+    <t>思诚</t>
+  </si>
+  <si>
+    <t>sicheng</t>
+  </si>
+  <si>
+    <t>艾琪</t>
+  </si>
+  <si>
+    <t>aiqi</t>
+  </si>
+  <si>
+    <t>艾佳</t>
+  </si>
+  <si>
+    <t>aijia</t>
+  </si>
+  <si>
+    <t>艾诚</t>
+  </si>
+  <si>
+    <t>aicheng</t>
+  </si>
+  <si>
+    <t>艾达</t>
+  </si>
+  <si>
+    <t>aida</t>
+  </si>
+  <si>
+    <t>宁儿</t>
+  </si>
+  <si>
+    <t>ninger</t>
+  </si>
+  <si>
+    <t>纯中文场景</t>
+  </si>
+  <si>
+    <t>瑞琳</t>
+  </si>
+  <si>
+    <t>ruilin</t>
+  </si>
+  <si>
+    <t>思悦</t>
+  </si>
+  <si>
+    <t>siyue</t>
+  </si>
+  <si>
+    <t>客服场景</t>
+  </si>
+  <si>
+    <t>艾雅</t>
+  </si>
+  <si>
+    <t>aiya</t>
+  </si>
+  <si>
+    <t>严厉女声</t>
+  </si>
+  <si>
+    <t>艾夏</t>
+  </si>
+  <si>
+    <t>aixia</t>
+  </si>
+  <si>
+    <t>亲和女声</t>
+  </si>
+  <si>
+    <t>艾美</t>
+  </si>
+  <si>
+    <t>aimei</t>
+  </si>
+  <si>
+    <t>甜美女声</t>
+  </si>
+  <si>
+    <t>艾雨</t>
+  </si>
+  <si>
+    <t>aiyu</t>
+  </si>
+  <si>
+    <t>自然女声</t>
+  </si>
+  <si>
+    <t>艾悦</t>
+  </si>
+  <si>
+    <t>aiyue</t>
+  </si>
+  <si>
+    <t>艾婧</t>
+  </si>
+  <si>
+    <t>aijing</t>
+  </si>
+  <si>
+    <t>小美</t>
+  </si>
+  <si>
+    <t>xiaomei</t>
+  </si>
+  <si>
+    <t>艾娜</t>
+  </si>
+  <si>
+    <t>aina</t>
+  </si>
+  <si>
+    <t>浙普女声</t>
+  </si>
+  <si>
+    <t>伊娜</t>
+  </si>
+  <si>
+    <t>yina</t>
+  </si>
+  <si>
+    <t>思婧</t>
+  </si>
+  <si>
+    <t>sijing</t>
+  </si>
+  <si>
+    <t>思彤</t>
+  </si>
+  <si>
+    <t>sitong</t>
+  </si>
+  <si>
+    <t>儿童音</t>
+  </si>
+  <si>
+    <t>童声场景</t>
+  </si>
+  <si>
+    <t>小北</t>
+  </si>
+  <si>
+    <t>xiaobei</t>
+  </si>
+  <si>
+    <t>萝莉女声</t>
+  </si>
+  <si>
+    <t>艾彤</t>
+  </si>
+  <si>
+    <t>aitong</t>
+  </si>
+  <si>
+    <t>艾薇</t>
+  </si>
+  <si>
+    <t>aiwei</t>
+  </si>
+  <si>
+    <t>艾宝</t>
+  </si>
+  <si>
+    <t>aibao</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>harry</t>
+  </si>
+  <si>
+    <t>英音男声</t>
+  </si>
+  <si>
+    <t>英文场景</t>
+  </si>
+  <si>
+    <t>Abby</t>
+  </si>
+  <si>
+    <t>abby</t>
+  </si>
+  <si>
+    <t>美音女声</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>andy</t>
+  </si>
+  <si>
+    <t>美音男声</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>eric</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>emily</t>
+  </si>
+  <si>
+    <t>英音女声</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>luna</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>luca</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>wendy</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>william</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>olivia</t>
+  </si>
+  <si>
+    <t>姗姗</t>
+  </si>
+  <si>
+    <t>shanshan</t>
+  </si>
+  <si>
+    <t>粤语女声</t>
+  </si>
+  <si>
+    <t>方言场景</t>
+  </si>
+  <si>
+    <t>标准粤文（简体）及粤英文混合场景</t>
+  </si>
+  <si>
+    <t>小玥</t>
+  </si>
+  <si>
+    <t>chuangirl</t>
+  </si>
+  <si>
+    <t>四川话女声</t>
+  </si>
+  <si>
+    <t>Lydia</t>
+  </si>
+  <si>
+    <t>lydia</t>
+  </si>
+  <si>
+    <t>英中双语女声</t>
+  </si>
+  <si>
+    <t>英文及英中文混合场景</t>
+  </si>
+  <si>
+    <t>艾硕</t>
+  </si>
+  <si>
+    <t>aishuo</t>
+  </si>
+  <si>
+    <t>自然男声</t>
+  </si>
+  <si>
+    <t>青青</t>
+  </si>
+  <si>
+    <t>qingqing</t>
+  </si>
+  <si>
+    <t>中国台湾话女声</t>
+  </si>
+  <si>
+    <t>中文场景</t>
+  </si>
+  <si>
+    <t>翠姐</t>
+  </si>
+  <si>
+    <t>cuijie</t>
+  </si>
+  <si>
+    <t>东北话女声</t>
+  </si>
+  <si>
+    <t>小泽</t>
+  </si>
+  <si>
+    <t>xiaoze</t>
+  </si>
+  <si>
+    <t>湖南重口音男声</t>
+  </si>
+  <si>
+    <t>智香</t>
+  </si>
+  <si>
+    <t>tomoka</t>
+  </si>
+  <si>
+    <t>日语女声</t>
+  </si>
+  <si>
+    <t>多语种场景</t>
+  </si>
+  <si>
+    <t>日文场景</t>
+  </si>
+  <si>
+    <t>智也</t>
+  </si>
+  <si>
+    <t>tomoya</t>
+  </si>
+  <si>
+    <t>日语男声</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>annie</t>
+  </si>
+  <si>
+    <t>美语女声</t>
+  </si>
+  <si>
+    <t>佳佳</t>
+  </si>
+  <si>
+    <t>jiajia</t>
+  </si>
+  <si>
+    <t>Indah</t>
+  </si>
+  <si>
+    <t>indah</t>
+  </si>
+  <si>
+    <t>印尼语女声</t>
+  </si>
+  <si>
+    <t>纯印尼语场景</t>
+  </si>
+  <si>
+    <t>桃子</t>
+  </si>
+  <si>
+    <t>taozi</t>
+  </si>
+  <si>
+    <t>支持标准粤文（简体）及粤英文混合场景</t>
+  </si>
+  <si>
+    <t>柜姐</t>
+  </si>
+  <si>
+    <t>guijie</t>
+  </si>
+  <si>
+    <t>亲切女声</t>
+  </si>
+  <si>
+    <t>支持中文及中英文混合场景</t>
+  </si>
+  <si>
+    <t>Stella</t>
+  </si>
+  <si>
+    <t>stella</t>
+  </si>
+  <si>
+    <t>知性女声</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>stanley</t>
+  </si>
+  <si>
+    <t>沉稳男声</t>
+  </si>
+  <si>
+    <t>Kenny</t>
+  </si>
+  <si>
+    <t>kenny</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>rosa</t>
+  </si>
+  <si>
+    <t>Farah</t>
+  </si>
+  <si>
+    <t>farah</t>
+  </si>
+  <si>
+    <t>马来语女声</t>
+  </si>
+  <si>
+    <t>仅支持纯马来语场景</t>
+  </si>
+  <si>
+    <t>马树</t>
+  </si>
+  <si>
+    <t>mashu</t>
+  </si>
+  <si>
+    <t>儿童剧男声</t>
+  </si>
+  <si>
+    <t>小仙</t>
+  </si>
+  <si>
+    <t>xiaoxian</t>
+  </si>
+  <si>
+    <t>直播场景</t>
+  </si>
+  <si>
+    <t>悦儿</t>
+  </si>
+  <si>
+    <t>yuer</t>
+  </si>
+  <si>
+    <t>儿童剧女声</t>
+  </si>
+  <si>
+    <t>仅支持纯中文场景</t>
+  </si>
+  <si>
+    <t>猫小美</t>
+  </si>
+  <si>
+    <t>maoxiaomei</t>
+  </si>
+  <si>
+    <t>活力女声</t>
+  </si>
+  <si>
+    <t>激昂解说</t>
+  </si>
+  <si>
+    <t>精品版</t>
+  </si>
+  <si>
+    <t>悬疑解说</t>
+  </si>
+  <si>
+    <t>艾飞</t>
+  </si>
+  <si>
+    <t>aifei</t>
+  </si>
+  <si>
+    <t>亚群</t>
+  </si>
+  <si>
+    <t>yaqun</t>
+  </si>
+  <si>
+    <t>卖场广播</t>
+  </si>
+  <si>
+    <t>巧薇</t>
+  </si>
+  <si>
+    <t>qiaowei</t>
+  </si>
+  <si>
+    <t>大虎</t>
+  </si>
+  <si>
+    <t>dahu</t>
+  </si>
+  <si>
+    <t>东北话男声</t>
+  </si>
+  <si>
+    <t>ava</t>
+  </si>
+  <si>
+    <t>仅支持纯英文场景</t>
+  </si>
+  <si>
+    <t>艾伦</t>
+  </si>
+  <si>
+    <t>ailun</t>
+  </si>
+  <si>
+    <t>杰力豆</t>
+  </si>
+  <si>
+    <t>jielidou</t>
+  </si>
+  <si>
+    <t>治愈童声</t>
+  </si>
+  <si>
+    <t>老铁</t>
+  </si>
+  <si>
+    <t>laotie</t>
+  </si>
+  <si>
+    <t>东北老铁</t>
+  </si>
+  <si>
+    <t>老妹</t>
+  </si>
+  <si>
+    <t>laomei</t>
+  </si>
+  <si>
+    <t>吆喝女声</t>
+  </si>
+  <si>
+    <t>艾侃</t>
+  </si>
+  <si>
+    <t>aikan</t>
+  </si>
+  <si>
+    <t>天津话男声</t>
+  </si>
+  <si>
+    <t>Tala</t>
+  </si>
+  <si>
+    <t>tala</t>
+  </si>
+  <si>
+    <t>菲律宾语女声</t>
+  </si>
+  <si>
+    <t>仅支持菲律宾语场景</t>
+  </si>
+  <si>
+    <t>Tien</t>
+  </si>
+  <si>
+    <t>tien</t>
+  </si>
+  <si>
+    <t>越南语女声</t>
+  </si>
+  <si>
+    <t>仅支持越南语场景</t>
+  </si>
+  <si>
+    <t>Becca</t>
+  </si>
+  <si>
+    <t>becca</t>
+  </si>
+  <si>
+    <t>美语客服女声</t>
+  </si>
+  <si>
+    <t>美式英语</t>
+  </si>
+  <si>
+    <t>支持纯英语场景</t>
+  </si>
+  <si>
+    <t>知甜</t>
+  </si>
+  <si>
+    <t>zhitian</t>
+  </si>
+  <si>
+    <t>知青</t>
+  </si>
+  <si>
+    <t>zhiqing</t>
+  </si>
+  <si>
+    <t>中国台湾话女生</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>Locale</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>语音名称</t>
+  </si>
+  <si>
+    <t>风格化</t>
+  </si>
+  <si>
+    <t>中文（普通话，简体）</t>
+  </si>
+  <si>
+    <t>zh-CN</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>zh-CN-XiaochenNeural</t>
+  </si>
+  <si>
+    <t>不支持</t>
+  </si>
+  <si>
+    <t>zh-CN-XiaohanNeural</t>
+  </si>
+  <si>
+    <t>affectionate, angry, calm, cheerful, disgruntled, embarrassed, fearful, gentle, sad, serious</t>
+  </si>
+  <si>
+    <t>zh-CN-XiaomoNeural</t>
+  </si>
+  <si>
+    <t>affectionate, angry, calm, cheerful, depressed, disgruntled, embarrassed, envious, fearful, gentle, sad, serious</t>
+  </si>
+  <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>zh-CN-XiaoqiuNeural</t>
+  </si>
+  <si>
+    <t>zh-CN-XiaoruiNeural</t>
+  </si>
+  <si>
+    <t>angry, calm, fearful, sad</t>
+  </si>
+  <si>
+    <t>zh-CN-XiaoshuangNeural</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>zh-CN-XiaoxiaoNeural</t>
+  </si>
+  <si>
+    <t>affectionate, angry, assistant, calm, chat, cheerful, customerservice, disgruntled, fearful, gentle, lyrical, newscast, poetry-reading, sad, serious</t>
+  </si>
+  <si>
+    <t>zh-CN-XiaoxuanNeural</t>
+  </si>
+  <si>
+    <t>angry, calm, cheerful, depressed, disgruntled, fearful, gentle, serious</t>
+  </si>
+  <si>
+    <t>zh-CN-XiaoyanNeural</t>
+  </si>
+  <si>
+    <t>zh-CN-XiaoyouNeural</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>zh-CN-YunxiNeural</t>
+  </si>
+  <si>
+    <t>angry, assistant, cheerful, depressed, disgruntled, embarrassed, fearful, narration-relaxed, sad, serious</t>
+  </si>
+  <si>
+    <t>zh-CN-YunyangNeural</t>
+  </si>
+  <si>
+    <t>customerservice, narration-professional, newscast-casual</t>
+  </si>
+  <si>
+    <t>zh-CN-YunyeNeural</t>
+  </si>
+  <si>
+    <t>angry, calm, cheerful, disgruntled, embarrassed, fearful, sad, serious</t>
+  </si>
+  <si>
+    <r>
+      <t>voice</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voice参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色扮演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准女声</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +924,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,31 +954,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,12 +1012,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,10 +1040,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -476,15 +1055,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -802,7 +1400,7 @@
     <tableColumn id="7" xr3:uid="{00FAEFD5-F805-450E-9C55-CD4452167560}" name="PitchRate" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{03EC7BC5-5E1E-4554-8148-8B158B83CA7F}" name="OtherCustoms" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1068,11 +1666,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1679,7 @@
     <col min="1" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,67 +1701,3156 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="范围错误" error="只能是介于-500到500之间的整数" promptTitle="语调列" prompt="语音合成时的声调，需要是一个取值范围为[-500,500]的整数；_x000a__x000a_-500代表低八度，500代表高八度。_x000a_如果不填，默认值是0，即原声调。" sqref="G2:G1048576" xr:uid="{E72D5E0B-2341-41DF-8241-0F68E74B057E}">
+      <formula1>-500</formula1>
+      <formula2>500</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自定义列" prompt="自定义列用于指定给头文本,显示自定义文本。_x000a_可以修改本列列名，也可也添加额外的自定义列（但不能和左边的行重名！）_x000a_&lt;set:&gt;设置行能修改自定义列的内容，不能修改左边的列。_x000a_不可以包含符号：&quot; \ # |" sqref="H2:H1048576" xr:uid="{1AE85FFE-CD5B-482B-B206-C4357B004AD8}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="范围错误" error="只能是介于-500到500之间的整数" promptTitle="语速列" prompt="语音合成时的语速，需要是一个取值范围为[-500,500]的整数；_x000a__x000a_-500代表0.5倍速，500代表2倍速度。_x000a_如果不填，默认值是0，即原速。" sqref="F2:F1048576" xr:uid="{C51F360C-7C86-425B-AB49-3BE88BC6DDFE}">
+      <formula1>-500</formula1>
+      <formula2>500</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="气泡列：" prompt="指定角色的发言气泡；_x000a_需要指定一个媒体定义文件中定义好的气泡类媒体名（不是文件名！）_x000a__x000a_如果不需要气泡，请输入：NA_x000a_（没有气泡的角色不能作为主要发言人！）" sqref="D2:D1048576" xr:uid="{1C82914C-3757-4EF8-BA39-A95D13CE3FC3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="立绘列：" prompt="指定角色的立绘；_x000a_需要指定一个媒体定义文件中定义好的立绘类媒体名（不是文件名！）_x000a__x000a_如果不需要显示立绘，请输入：NA" sqref="C2:C1048576" xr:uid="{36C43A22-890C-40C8-97FC-675A31F697CB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="角色差分列：" prompt="角色差分指同一个角色的不同状态；一个角色可以拥有无限个差分；同一个角色的差分不能重名。_x000a__x000a_可以使用的字符包括：汉字、英文字母、数字、下划线。" sqref="B2:B1048576" xr:uid="{00F86F94-2AB1-4A38-B214-82F334B3B366}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="角色名称列：" prompt="角色的名称，和log文件中的角色名相互对应。角色须在本表中定义后才能在log文件中使用。_x000a__x000a_可以使用的字符包括：汉字、英文字母、数字、下划线、空格。" sqref="A2:A1048576" xr:uid="{C63474F3-DF68-478C-AF8D-FDEB02AB4A71}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="所选音源不在可选音源范围内" promptTitle="音源列" prompt="指定语音合成时角色的音源；_x000a_可用的音源名请参考帮助文档；若音源名有误，将无法合成语音。_x000a__x000a_建议从音频试听窗口复制音源参数，并直接黏贴到这一列。" xr:uid="{3F8B8057-5D57-4979-B3E6-D51D96C0326C}">
+          <x14:formula1>
+            <xm:f>OR(COUNTIF(所有可用音源!A:A,E2)&gt;0,LEFT(E2,7)="Azure::")</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166DC2E1-0816-49B8-A2B0-16702A9B6229}">
+  <dimension ref="A1:A93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>阿里云音源!B2</f>
+        <v>zhimi_emo</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>阿里云音源!B3</f>
+        <v>zhiyan_emo</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>阿里云音源!B4</f>
+        <v>zhibei_emo</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>阿里云音源!B5</f>
+        <v>zhitian_emo</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>阿里云音源!B6</f>
+        <v>xiaoyun</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>阿里云音源!B7</f>
+        <v>xiaogang</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>阿里云音源!B8</f>
+        <v>ruoxi</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>阿里云音源!B9</f>
+        <v>siqi</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>阿里云音源!B10</f>
+        <v>sijia</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>阿里云音源!B11</f>
+        <v>sicheng</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>阿里云音源!B12</f>
+        <v>aiqi</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>阿里云音源!B13</f>
+        <v>aijia</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>阿里云音源!B14</f>
+        <v>aicheng</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>阿里云音源!B15</f>
+        <v>aida</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>阿里云音源!B16</f>
+        <v>ninger</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>阿里云音源!B17</f>
+        <v>ruilin</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>阿里云音源!B18</f>
+        <v>siyue</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>阿里云音源!B19</f>
+        <v>aiya</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>阿里云音源!B20</f>
+        <v>aixia</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>阿里云音源!B21</f>
+        <v>aimei</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>阿里云音源!B22</f>
+        <v>aiyu</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>阿里云音源!B23</f>
+        <v>aiyue</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>阿里云音源!B24</f>
+        <v>aijing</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>阿里云音源!B25</f>
+        <v>xiaomei</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>阿里云音源!B26</f>
+        <v>aina</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>阿里云音源!B27</f>
+        <v>yina</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>阿里云音源!B28</f>
+        <v>sijing</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>阿里云音源!B29</f>
+        <v>sitong</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>阿里云音源!B30</f>
+        <v>xiaobei</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>阿里云音源!B31</f>
+        <v>aitong</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>阿里云音源!B32</f>
+        <v>aiwei</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>阿里云音源!B33</f>
+        <v>aibao</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>阿里云音源!B34</f>
+        <v>harry</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>阿里云音源!B35</f>
+        <v>abby</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>阿里云音源!B36</f>
+        <v>andy</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>阿里云音源!B37</f>
+        <v>eric</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>阿里云音源!B38</f>
+        <v>emily</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>阿里云音源!B39</f>
+        <v>luna</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f>阿里云音源!B40</f>
+        <v>luca</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>阿里云音源!B41</f>
+        <v>wendy</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f>阿里云音源!B42</f>
+        <v>william</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>阿里云音源!B43</f>
+        <v>olivia</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f>阿里云音源!B44</f>
+        <v>shanshan</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>阿里云音源!B45</f>
+        <v>chuangirl</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f>阿里云音源!B46</f>
+        <v>lydia</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f>阿里云音源!B47</f>
+        <v>aishuo</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f>阿里云音源!B48</f>
+        <v>qingqing</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>阿里云音源!B49</f>
+        <v>cuijie</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f>阿里云音源!B50</f>
+        <v>xiaoze</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f>阿里云音源!B51</f>
+        <v>tomoka</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f>阿里云音源!B52</f>
+        <v>tomoya</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f>阿里云音源!B53</f>
+        <v>annie</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f>阿里云音源!B54</f>
+        <v>jiajia</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f>阿里云音源!B55</f>
+        <v>indah</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f>阿里云音源!B56</f>
+        <v>taozi</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f>阿里云音源!B57</f>
+        <v>guijie</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f>阿里云音源!B58</f>
+        <v>stella</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f>阿里云音源!B59</f>
+        <v>stanley</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f>阿里云音源!B60</f>
+        <v>kenny</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f>阿里云音源!B61</f>
+        <v>rosa</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f>阿里云音源!B62</f>
+        <v>farah</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f>阿里云音源!B63</f>
+        <v>mashu</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f>阿里云音源!B64</f>
+        <v>xiaoxian</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f>阿里云音源!B65</f>
+        <v>yuer</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f>阿里云音源!B66</f>
+        <v>maoxiaomei</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f>阿里云音源!B67</f>
+        <v>aifei</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f>阿里云音源!B68</f>
+        <v>yaqun</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f>阿里云音源!B69</f>
+        <v>qiaowei</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f>阿里云音源!B70</f>
+        <v>dahu</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f>阿里云音源!B71</f>
+        <v>ava</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f>阿里云音源!B72</f>
+        <v>ailun</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f>阿里云音源!B73</f>
+        <v>jielidou</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f>阿里云音源!B74</f>
+        <v>laotie</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f>阿里云音源!B75</f>
+        <v>laomei</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>阿里云音源!B76</f>
+        <v>aikan</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f>阿里云音源!B77</f>
+        <v>tala</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f>阿里云音源!B78</f>
+        <v>tien</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f>阿里云音源!B79</f>
+        <v>becca</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f>阿里云音源!B80</f>
+        <v>zhitian</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f>阿里云音源!B81</f>
+        <v>zhiqing</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f>Azure普通话音源!G2</f>
+        <v>Azure::zh-CN-XiaochenNeural</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f>Azure普通话音源!G3</f>
+        <v>Azure::zh-CN-XiaohanNeural</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f>Azure普通话音源!G4</f>
+        <v>Azure::zh-CN-XiaomoNeural</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f>Azure普通话音源!G5</f>
+        <v>Azure::zh-CN-XiaoqiuNeural</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f>Azure普通话音源!G6</f>
+        <v>Azure::zh-CN-XiaoruiNeural</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f>Azure普通话音源!G7</f>
+        <v>Azure::zh-CN-XiaoshuangNeural</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f>Azure普通话音源!G8</f>
+        <v>Azure::zh-CN-XiaoxiaoNeural</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f>Azure普通话音源!G9</f>
+        <v>Azure::zh-CN-XiaoxuanNeural</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f>Azure普通话音源!G10</f>
+        <v>Azure::zh-CN-XiaoyanNeural</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f>Azure普通话音源!G11</f>
+        <v>Azure::zh-CN-XiaoyouNeural</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f>Azure普通话音源!G12</f>
+        <v>Azure::zh-CN-YunxiNeural</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f>Azure普通话音源!G13</f>
+        <v>Azure::zh-CN-YunyangNeural</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f>Azure普通话音源!G14</f>
+        <v>Azure::zh-CN-YunyeNeural</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCFB403-A747-4DB5-84E6-93308452AA89}">
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A81" sqref="A2:A81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B786E3AF-C2FC-4D10-A98B-0FC6C460F12F}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="37.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"Azure::"&amp;D2</f>
+        <v>Azure::zh-CN-XiaochenNeural</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G14" si="0">"Azure::"&amp;D3</f>
+        <v>Azure::zh-CN-XiaohanNeural</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Azure::zh-CN-XiaomoNeural</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Azure::zh-CN-XiaoqiuNeural</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Azure::zh-CN-XiaoruiNeural</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Azure::zh-CN-XiaoshuangNeural</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>Azure::zh-CN-XiaoxiaoNeural</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>Azure::zh-CN-XiaoxuanNeural</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>Azure::zh-CN-XiaoyanNeural</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>Azure::zh-CN-XiaoyouNeural</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>Azure::zh-CN-YunxiNeural</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>Azure::zh-CN-YunyangNeural</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>Azure::zh-CN-YunyeNeural</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tools_scripts/CharactorTable_template.xlsx
+++ b/tools_scripts/CharactorTable_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TRPG-Replay-Generator\tools_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE79217-4085-41AF-B51C-035590A7ECF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E103DA24-E580-4B37-84B6-EA0B595B2104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色配置" sheetId="1" r:id="rId1"/>
@@ -1016,7 +1016,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1039,12 +1039,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1070,14 +1083,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1388,8 +1404,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3B58F0-E77F-4A50-A50D-8AF7EA48F2CE}" name="表2" displayName="表2" ref="A1:H6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
-  <autoFilter ref="A1:H6" xr:uid="{0A3B58F0-E77F-4A50-A50D-8AF7EA48F2CE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A3B58F0-E77F-4A50-A50D-8AF7EA48F2CE}" name="表2" displayName="表2" ref="A1:H9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A1:H9" xr:uid="{0A3B58F0-E77F-4A50-A50D-8AF7EA48F2CE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{477E84AB-0091-4FEB-A963-9043D145B5A9}" name="Name" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{4AA3B6E4-111D-487C-98EA-D985C5E92A1D}" name="Subtype" dataDxfId="6"/>
@@ -1667,11 +1686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1701,7 +1720,7 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1713,7 +1732,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
@@ -1754,6 +1773,36 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2373,7 +2422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCFB403-A747-4DB5-84E6-93308452AA89}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A66" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A81" sqref="A2:A81"/>
     </sheetView>
   </sheetViews>
@@ -2522,7 +2571,7 @@
       <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>286</v>
       </c>
       <c r="D6" s="7" t="s">
